--- a/mySystem/mySystem/xls/miejun/SOP-MFG-106-R02B 辐照灭菌产品验收记录.xlsx
+++ b/mySystem/mySystem/xls/miejun/SOP-MFG-106-R02B 辐照灭菌产品验收记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\我的\灭菌\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C Sharp\my\mySystem\mySystem\xls\miejun\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <r>
       <rPr>
@@ -47,18 +47,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说明：</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -79,19 +67,6 @@
         <charset val="134"/>
       </rPr>
       <t>检验结果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应与所送产品一致。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,41 +123,6 @@
         <charset val="134"/>
       </rPr>
       <t>灭菌委托单编号：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>YES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  NO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,53 +201,38 @@
   </si>
   <si>
     <r>
-      <t>YES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结论：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  NO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">辐照产品符合要求，正常入库□
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结论：</t>
     </r>
     <r>
       <rPr>
@@ -316,26 +241,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">辐照产品符合要求，正常入库□
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">            </t>
     </r>
     <r>
@@ -417,27 +322,122 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辐照产品数量：</t>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外包装：箱体的外观</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签：产品标签和辐照标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辐照：辐照报告和批号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测样品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应与所送产品一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收人：                    年   月   日              复核人：                    年   月   日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输商：                             操作人：                                  年   月   日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>YES□  NO□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES□  NO□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES□  NO□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3. 辐照产品数量：</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">          箱
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">                计</t>
     </r>
     <r>
       <rPr>
@@ -447,354 +447,9 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">箱
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>托</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外包装：箱体的外观</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签：产品标签和辐照标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辐照：辐照报告和批号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测样品</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运输商：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>验收人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">              </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复核人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">         托</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,11 +531,12 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -888,7 +544,32 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1241,11 +922,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,13 +951,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,21 +1020,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1336,44 +1032,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1683,7 +1382,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1698,202 +1397,195 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-    </row>
-    <row r="17" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A2:E2"/>
@@ -1910,6 +1602,13 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/miejun/SOP-MFG-106-R02B 辐照灭菌产品验收记录.xlsx
+++ b/mySystem/mySystem/xls/miejun/SOP-MFG-106-R02B 辐照灭菌产品验收记录.xlsx
@@ -26,69 +26,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辐照产品运回日期</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查项目</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要求</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检验结果</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每箱产品均应干净，无损坏、无变形。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
@@ -114,148 +51,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灭菌委托单编号：</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辐照供应商</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每箱上产品标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个，照射标签</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个，均应完好、清晰。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每批照射产品均应有照射报告，且报告中辐照批号与辐照标签上的批号一致。
 报告编号：
 辐照批号：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结论：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">辐照产品符合要求，正常入库□
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不符合要求，按不合格品处理□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每批照射产品收到后通知QC取样，同时附照射报告给QC。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,22 +67,6 @@
   </si>
   <si>
     <t>SOP-MFG-106-R02B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运输商</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -317,70 +102,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                            。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外包装：箱体的外观</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签：产品标签和辐照标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>辐照：辐照报告和批号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测样品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,12 +174,68 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+结论：  辐照产品符合要求，正常入库□
+        不符合要求，按不合格品处理□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭菌委托单编号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐照产品运回日期</t>
+  </si>
+  <si>
+    <t>检查项目</t>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 辐照供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 运输商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 外包装：箱体的外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每箱产品均应干净，无损坏、无变形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 标签：产品标签和辐照标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每箱上产品标签2个，照射标签1个，均应完好、清晰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 辐照：辐照报告和批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 检测样品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,13 +254,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -922,136 +692,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1062,17 +727,119 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1381,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1397,195 +1164,197 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="33"/>
+    </row>
+    <row r="4" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="6" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="16" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="18" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5" ht="24.2" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="A2:E2"/>
